--- a/results/summary-means/mean_accel_diel_period.xlsx
+++ b/results/summary-means/mean_accel_diel_period.xlsx
@@ -482,7 +482,7 @@
         <v>0.21</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="9">
